--- a/EntregaFinal/Casos de Prueba.xlsx
+++ b/EntregaFinal/Casos de Prueba.xlsx
@@ -98,12 +98,6 @@
     <t>Login usuario</t>
   </si>
   <si>
-    <t>Mensaje si no existe Producto</t>
-  </si>
-  <si>
-    <t>Busqueda de Producto</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>App Productos</t>
+  </si>
+  <si>
+    <t>Editar Producto</t>
+  </si>
+  <si>
+    <t>Eliminar Producto</t>
   </si>
 </sst>
 </file>
@@ -180,10 +180,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -193,6 +189,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,25 +498,25 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -528,8 +528,8 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -541,89 +541,89 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>45645</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="7" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="6">
+        <v>45646</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="8">
-        <v>45646</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="7" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="6">
+        <v>45650</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8">
-        <v>45646</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
